--- a/excel/collective/zestawy_dla_uczniow/zestaw_030.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_030.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="315">
   <si>
     <t>ZESTAW ZADAŃ NR 30 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Jan Lewandowski</t>
-  </si>
-  <si>
-    <t>Hanna Kaźmierczak</t>
-  </si>
-  <si>
-    <t>Amelia Lis</t>
-  </si>
-  <si>
-    <t>Kacper Lewandowski</t>
-  </si>
-  <si>
-    <t>Amelia Olszewska</t>
+    <t>Kacper Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Natalia Rogalska</t>
+  </si>
+  <si>
+    <t>Jakub Wójcik</t>
+  </si>
+  <si>
+    <t>Hanna Sikorska</t>
+  </si>
+  <si>
+    <t>Wojciech Woźniak</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,40 +160,40 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>5,70</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>1,20</t>
+  </si>
+  <si>
+    <t>Farby plakatowe 12 kolorów</t>
+  </si>
+  <si>
+    <t>13,30</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>2,40</t>
+  </si>
+  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>5,70</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>2,10</t>
-  </si>
-  <si>
-    <t>Pędzelek</t>
-  </si>
-  <si>
-    <t>4,40</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>22,40</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>7,00</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>0,80</t>
+    <t>5,50</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>1,10</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -220,31 +220,31 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>4,60</t>
+    <t>16,45</t>
   </si>
   <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>12,15</t>
+    <t>14,09</t>
   </si>
   <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>2,22</t>
+    <t>11,62</t>
   </si>
   <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>19,65</t>
+    <t>29,60</t>
   </si>
   <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>21,88</t>
+    <t>12,88</t>
   </si>
   <si>
     <t>Razem Styczeń:</t>
@@ -253,19 +253,19 @@
     <t>Luty:</t>
   </si>
   <si>
-    <t>17,95</t>
-  </si>
-  <si>
-    <t>28,68</t>
-  </si>
-  <si>
-    <t>20,96</t>
-  </si>
-  <si>
-    <t>20,78</t>
-  </si>
-  <si>
-    <t>7,12</t>
+    <t>3,54</t>
+  </si>
+  <si>
+    <t>10,77</t>
+  </si>
+  <si>
+    <t>18,90</t>
+  </si>
+  <si>
+    <t>1,12</t>
+  </si>
+  <si>
+    <t>24,46</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>27,84</t>
-  </si>
-  <si>
-    <t>6,39</t>
-  </si>
-  <si>
-    <t>28,98</t>
-  </si>
-  <si>
-    <t>22,31</t>
-  </si>
-  <si>
-    <t>16,91</t>
+    <t>14,78</t>
+  </si>
+  <si>
+    <t>27,18</t>
+  </si>
+  <si>
+    <t>14,32</t>
+  </si>
+  <si>
+    <t>17,16</t>
+  </si>
+  <si>
+    <t>30,90</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,42 +340,33 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Filip</t>
-  </si>
-  <si>
-    <t>Kowalski</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Górska</t>
-  </si>
-  <si>
-    <t>Wojciech</t>
-  </si>
-  <si>
-    <t>Kozłowski</t>
-  </si>
-  <si>
-    <t>Jan</t>
+    <t>Adam</t>
   </si>
   <si>
     <t>Zieliński</t>
   </si>
   <si>
-    <t>Kamiński</t>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Wojciechowski</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Piekarska</t>
+  </si>
+  <si>
+    <t>Wiśniewski</t>
+  </si>
+  <si>
+    <t>Hanna</t>
   </si>
   <si>
     <t>Olszewska</t>
   </si>
   <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Kaźmierczak</t>
-  </si>
-  <si>
     <t>Średnia przedmiotu:</t>
   </si>
   <si>
@@ -409,154 +400,166 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Szymon Lewandowski</t>
-  </si>
-  <si>
-    <t>07.12.1980</t>
-  </si>
-  <si>
-    <t>9 365,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Wojciechowski</t>
-  </si>
-  <si>
-    <t>10.03.1988</t>
-  </si>
-  <si>
-    <t>12 184,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Maciejewska</t>
-  </si>
-  <si>
-    <t>19.10.2005</t>
-  </si>
-  <si>
-    <t>14 762,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Kaźmierczak</t>
-  </si>
-  <si>
-    <t>22.01.1984</t>
-  </si>
-  <si>
-    <t>10 225,00 zł</t>
-  </si>
-  <si>
-    <t>Jakub Wójcik</t>
-  </si>
-  <si>
-    <t>13.11.1983</t>
-  </si>
-  <si>
-    <t>9 875,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Kamiński</t>
-  </si>
-  <si>
-    <t>12.07.1984</t>
-  </si>
-  <si>
-    <t>3 741,00 zł</t>
-  </si>
-  <si>
-    <t>01.11.2001</t>
-  </si>
-  <si>
-    <t>9 154,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Czarnecka</t>
-  </si>
-  <si>
-    <t>23.06.1979</t>
-  </si>
-  <si>
-    <t>12 914,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Grabowski</t>
-  </si>
-  <si>
-    <t>26.03.1980</t>
-  </si>
-  <si>
-    <t>13 805,00 zł</t>
-  </si>
-  <si>
-    <t>Lena Górska</t>
-  </si>
-  <si>
-    <t>05.01.2002</t>
-  </si>
-  <si>
-    <t>3 656,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Wilk</t>
-  </si>
-  <si>
-    <t>24.09.1978</t>
-  </si>
-  <si>
-    <t>6 216,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Urbaniak</t>
-  </si>
-  <si>
-    <t>24.09.1995</t>
-  </si>
-  <si>
-    <t>11 273,00 zł</t>
-  </si>
-  <si>
-    <t>Amelia Piekarska</t>
-  </si>
-  <si>
-    <t>02.04.1998</t>
-  </si>
-  <si>
-    <t>6 767,00 zł</t>
-  </si>
-  <si>
-    <t>Zuzanna Olszewska</t>
-  </si>
-  <si>
-    <t>09.07.2000</t>
-  </si>
-  <si>
-    <t>9 555,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Malinowska</t>
-  </si>
-  <si>
-    <t>13.04.1990</t>
-  </si>
-  <si>
-    <t>7 821,00 zł</t>
-  </si>
-  <si>
-    <t>Filip Wojciechowski</t>
-  </si>
-  <si>
-    <t>28.12.1975</t>
-  </si>
-  <si>
-    <t>10 970,00 zł</t>
+    <t>Wojciech Zieliński</t>
+  </si>
+  <si>
+    <t>28.06.2000</t>
+  </si>
+  <si>
+    <t>11 764,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Jankowski</t>
+  </si>
+  <si>
+    <t>12.04.1996</t>
+  </si>
+  <si>
+    <t>13 716,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Krawczyk</t>
+  </si>
+  <si>
+    <t>18.08.1980</t>
+  </si>
+  <si>
+    <t>6 215,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Rogalska</t>
+  </si>
+  <si>
+    <t>20.08.1989</t>
+  </si>
+  <si>
+    <t>12 022,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Lis</t>
+  </si>
+  <si>
+    <t>17.09.1975</t>
+  </si>
+  <si>
+    <t>8 814,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Kozłowski</t>
+  </si>
+  <si>
+    <t>20.03.1997</t>
+  </si>
+  <si>
+    <t>12 879,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Wilk</t>
+  </si>
+  <si>
+    <t>20.12.1996</t>
+  </si>
+  <si>
+    <t>14 882,00 zł</t>
   </si>
   <si>
     <t>Jan Piotrowski</t>
   </si>
   <si>
-    <t>15.06.1995</t>
-  </si>
-  <si>
-    <t>14 367,00 zł</t>
+    <t>20.12.2002</t>
+  </si>
+  <si>
+    <t>12 194,00 zł</t>
+  </si>
+  <si>
+    <t>Maja Lis</t>
+  </si>
+  <si>
+    <t>23.08.1987</t>
+  </si>
+  <si>
+    <t>13 985,00 zł</t>
+  </si>
+  <si>
+    <t>Aleksander Kaczmarek</t>
+  </si>
+  <si>
+    <t>28.09.1984</t>
+  </si>
+  <si>
+    <t>11 438,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Sikorska</t>
+  </si>
+  <si>
+    <t>23.12.1982</t>
+  </si>
+  <si>
+    <t>6 906,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Kowalski</t>
+  </si>
+  <si>
+    <t>07.10.1979</t>
+  </si>
+  <si>
+    <t>12 793,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Lewandowski</t>
+  </si>
+  <si>
+    <t>10.03.1998</t>
+  </si>
+  <si>
+    <t>4 208,00 zł</t>
+  </si>
+  <si>
+    <t>Lena Piekarska</t>
+  </si>
+  <si>
+    <t>23.12.1995</t>
+  </si>
+  <si>
+    <t>5 740,00 zł</t>
+  </si>
+  <si>
+    <t>Natalia Wilk</t>
+  </si>
+  <si>
+    <t>27.07.1975</t>
+  </si>
+  <si>
+    <t>6 675,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Wojciechowski</t>
+  </si>
+  <si>
+    <t>26.09.1993</t>
+  </si>
+  <si>
+    <t>12 790,00 zł</t>
+  </si>
+  <si>
+    <t>Jakub Nowak</t>
+  </si>
+  <si>
+    <t>11.06.1998</t>
+  </si>
+  <si>
+    <t>10 375,00 zł</t>
+  </si>
+  <si>
+    <t>Filip Wiśniewski</t>
+  </si>
+  <si>
+    <t>01.05.2000</t>
+  </si>
+  <si>
+    <t>12 121,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -628,298 +631,325 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Styczeń</t>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>1 117,00 zł</t>
+  </si>
+  <si>
+    <t>1 486,00 zł</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>1 149,00 zł</t>
+  </si>
+  <si>
+    <t>1 344,00 zł</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
   </si>
   <si>
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>909,00 zł</t>
-  </si>
-  <si>
-    <t>1 127,00 zł</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
+    <t>1 962,00 zł</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>1 182,00 zł</t>
+  </si>
+  <si>
+    <t>1 513,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>596,00 zł</t>
+  </si>
+  <si>
+    <t>811,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>1 216,00 zł</t>
+  </si>
+  <si>
+    <t>1 556,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>1 265,00 zł</t>
+  </si>
+  <si>
+    <t>1 581,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>1 479,00 zł</t>
+  </si>
+  <si>
+    <t>1 893,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>1 384,00 zł</t>
+  </si>
+  <si>
+    <t>1 578,00 zł</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>1 456,00 zł</t>
+  </si>
+  <si>
+    <t>1 762,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>1 163,00 zł</t>
+  </si>
+  <si>
+    <t>1 442,00 zł</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>1 077,00 zł</t>
+  </si>
+  <si>
+    <t>1 314,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>560,00 zł</t>
+  </si>
+  <si>
+    <t>767,00 zł</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>1 002,00 zł</t>
+  </si>
+  <si>
+    <t>1 363,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>725,00 zł</t>
+  </si>
+  <si>
+    <t>943,00 zł</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 333,00 zł</t>
+  </si>
+  <si>
+    <t>1 533,00 zł</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>1 063,00 zł</t>
+  </si>
+  <si>
+    <t>1 446,00 zł</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>1 115,00 zł</t>
+  </si>
+  <si>
+    <t>1 371,00 zł</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>1 102,00 zł</t>
+  </si>
+  <si>
+    <t>1 532,00 zł</t>
+  </si>
+  <si>
+    <t>Drukarka laserowa</t>
+  </si>
+  <si>
+    <t>760,00 zł</t>
+  </si>
+  <si>
+    <t>980,00 zł</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
+  </si>
+  <si>
+    <t>1 403,00 zł</t>
+  </si>
+  <si>
+    <t>1 908,00 zł</t>
+  </si>
+  <si>
+    <t>Kamera internetowa</t>
+  </si>
+  <si>
+    <t>1 434,00 zł</t>
+  </si>
+  <si>
+    <t>1 663,00 zł</t>
+  </si>
+  <si>
+    <t>1 268,00 zł</t>
+  </si>
+  <si>
+    <t>1 750,00 zł</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>652,00 zł</t>
+  </si>
+  <si>
+    <t>893,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>1 161,00 zł</t>
+  </si>
+  <si>
+    <t>1 602,00 zł</t>
   </si>
   <si>
     <t>lubuskie</t>
   </si>
   <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>865,00 zł</t>
-  </si>
-  <si>
-    <t>969,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>1 413,00 zł</t>
-  </si>
-  <si>
-    <t>1 554,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>949,00 zł</t>
-  </si>
-  <si>
-    <t>1 215,00 zł</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Karta graficzna RTX</t>
-  </si>
-  <si>
-    <t>1 149,00 zł</t>
-  </si>
-  <si>
-    <t>1 367,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>1 343,00 zł</t>
-  </si>
-  <si>
-    <t>1 786,00 zł</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>1 340,00 zł</t>
-  </si>
-  <si>
-    <t>1 715,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
+    <t>1 189,00 zł</t>
+  </si>
+  <si>
+    <t>1 415,00 zł</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>1 453,00 zł</t>
+  </si>
+  <si>
+    <t>1 685,00 zł</t>
   </si>
   <si>
     <t>świętokrzyskie</t>
   </si>
   <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>1 475,00 zł</t>
-  </si>
-  <si>
-    <t>1 829,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Tablet 10"</t>
-  </si>
-  <si>
-    <t>1 410,00 zł</t>
-  </si>
-  <si>
-    <t>1 861,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>508,00 zł</t>
-  </si>
-  <si>
-    <t>650,00 zł</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>678,00 zł</t>
-  </si>
-  <si>
-    <t>746,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>1 216,00 zł</t>
-  </si>
-  <si>
-    <t>1 338,00 zł</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>1 098,00 zł</t>
-  </si>
-  <si>
-    <t>1 537,00 zł</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>901,00 zł</t>
-  </si>
-  <si>
-    <t>1 243,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>749,00 zł</t>
-  </si>
-  <si>
-    <t>831,00 zł</t>
-  </si>
-  <si>
-    <t>745,00 zł</t>
-  </si>
-  <si>
-    <t>954,00 zł</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>1 289,00 zł</t>
-  </si>
-  <si>
-    <t>1 727,00 zł</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>1 228,00 zł</t>
-  </si>
-  <si>
-    <t>1 400,00 zł</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>558,00 zł</t>
-  </si>
-  <si>
-    <t>670,00 zł</t>
-  </si>
-  <si>
-    <t>1 259,00 zł</t>
-  </si>
-  <si>
-    <t>1 624,00 zł</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 010,00 zł</t>
-  </si>
-  <si>
-    <t>1 172,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>733,00 zł</t>
-  </si>
-  <si>
-    <t>968,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 495,00 zł</t>
-  </si>
-  <si>
-    <t>2 093,00 zł</t>
-  </si>
-  <si>
-    <t>634,00 zł</t>
-  </si>
-  <si>
-    <t>729,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>1 386,00 zł</t>
-  </si>
-  <si>
-    <t>1 788,00 zł</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>1 456,00 zł</t>
-  </si>
-  <si>
-    <t>1 864,00 zł</t>
-  </si>
-  <si>
-    <t>1 351,00 zł</t>
+    <t>549,00 zł</t>
+  </si>
+  <si>
+    <t>736,00 zł</t>
+  </si>
+  <si>
+    <t>1 358,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1479,16 +1509,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -1497,19 +1527,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3">
         <v>6</v>
       </c>
       <c r="E18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F18" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1518,19 +1548,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E19" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1539,16 +1569,16 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3">
         <v>2</v>
       </c>
-      <c r="C20" s="3">
+      <c r="E20" s="3">
         <v>2</v>
-      </c>
-      <c r="D20" s="3">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>5</v>
       </c>
       <c r="F20" s="3">
         <v>5</v>
@@ -1560,16 +1590,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
@@ -1581,19 +1611,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3">
         <v>5</v>
-      </c>
-      <c r="C22" s="3">
-        <v>4</v>
       </c>
       <c r="D22" s="3">
         <v>5</v>
       </c>
       <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
         <v>6</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1602,13 +1632,13 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" s="3">
         <v>4</v>
@@ -1623,19 +1653,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
         <v>6</v>
       </c>
-      <c r="D24" s="3">
-        <v>3</v>
-      </c>
       <c r="E24" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F24" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1644,7 +1674,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3">
         <v>6</v>
@@ -1653,10 +1683,10 @@
         <v>2</v>
       </c>
       <c r="E25" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1668,16 +1698,16 @@
         <v>6</v>
       </c>
       <c r="C26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" s="3">
         <v>4</v>
       </c>
       <c r="F26" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1686,7 +1716,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="3">
         <v>4</v>
@@ -1695,10 +1725,10 @@
         <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F27" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1707,19 +1737,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="D28" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="3">
-        <v>3</v>
-      </c>
-      <c r="D28" s="3">
-        <v>2</v>
-      </c>
       <c r="E28" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1841,7 +1871,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1856,7 +1886,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1871,7 +1901,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1886,7 +1916,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1901,7 +1931,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1916,7 +1946,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -2033,7 +2063,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2045,7 +2075,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="3"/>
     </row>
@@ -2057,7 +2087,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2069,7 +2099,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2081,7 +2111,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2129,7 +2159,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2141,7 +2171,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2153,7 +2183,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2165,7 +2195,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2177,7 +2207,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2225,7 +2255,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2237,7 +2267,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2261,7 +2291,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2273,7 +2303,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2307,10 +2337,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A20" sqref="A20:L20"/>
+      <selection activeCell="A18" sqref="A18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2419,10 +2449,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="3">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
         <v>3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2</v>
       </c>
       <c r="G12" s="3">
         <v>6</v>
@@ -2431,10 +2461,10 @@
         <v>5</v>
       </c>
       <c r="I12" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2448,22 +2478,22 @@
         <v>109</v>
       </c>
       <c r="D13" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3">
         <v>6</v>
       </c>
       <c r="F13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H13" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J13" s="3">
         <v>4</v>
@@ -2480,7 +2510,7 @@
         <v>111</v>
       </c>
       <c r="D14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3">
         <v>5</v>
@@ -2492,10 +2522,10 @@
         <v>3</v>
       </c>
       <c r="H14" s="3">
+        <v>6</v>
+      </c>
+      <c r="I14" s="3">
         <v>5</v>
-      </c>
-      <c r="I14" s="3">
-        <v>6</v>
       </c>
       <c r="J14" s="3">
         <v>3</v>
@@ -2506,31 +2536,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="D15" s="3">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
         <v>3</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2</v>
       </c>
       <c r="F15" s="3">
         <v>4</v>
       </c>
       <c r="G15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H15" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J15" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2538,7 +2568,7 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>114</v>
@@ -2547,19 +2577,19 @@
         <v>4</v>
       </c>
       <c r="E16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H16" s="3">
         <v>4</v>
       </c>
       <c r="I16" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J16" s="3">
         <v>5</v>
@@ -2568,106 +2598,42 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="3">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3">
-        <v>6</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2</v>
-      </c>
-      <c r="H18" s="3">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
-        <v>2</v>
-      </c>
-      <c r="J18" s="3">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="D18:L18"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2680,10 +2646,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A31" sqref="A31:B33"/>
+      <selection activeCell="A32" sqref="A32:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2695,7 +2661,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2705,238 +2671,241 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B27" s="3" t="s">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="13" t="s">
+      <c r="C28" s="3" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="A31" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2944,7 +2913,7 @@
         <v>181</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2952,7 +2921,15 @@
         <v>182</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>183</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2970,10 +2947,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A46" sqref="A46:B50"/>
+      <selection activeCell="A48" sqref="A48:B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2989,7 +2966,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2999,75 +2976,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3075,22 +3052,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3098,22 +3075,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3121,22 +3098,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3144,7 +3121,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>219</v>
@@ -3156,10 +3133,10 @@
         <v>221</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3167,22 +3144,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3190,22 +3167,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3213,22 +3190,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3236,22 +3213,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3259,22 +3236,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3282,7 +3259,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>247</v>
@@ -3294,10 +3271,10 @@
         <v>249</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3305,22 +3282,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3328,22 +3305,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3351,22 +3328,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3374,22 +3351,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3397,22 +3374,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3420,22 +3397,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3443,22 +3420,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3466,22 +3443,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3489,22 +3466,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3512,22 +3489,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3535,22 +3512,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3558,22 +3535,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3581,22 +3558,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>288</v>
+        <v>219</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3604,22 +3581,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3627,22 +3604,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>222</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3650,22 +3627,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>296</v>
+        <v>210</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3673,67 +3650,113 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>258</v>
+        <v>304</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>300</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>183</v>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>301</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>183</v>
+      <c r="A47" s="13" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>313</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>314</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_030.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_030.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
   <si>
     <t>ZESTAW ZADAŃ NR 30 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 30 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>5,70</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>1,20</t>
-  </si>
-  <si>
     <t>Farby plakatowe 12 kolorów</t>
   </si>
   <si>
-    <t>13,30</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>2,40</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>5,50</t>
-  </si>
-  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,10</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>16,45</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>14,09</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>11,62</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>29,60</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>12,88</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>3,54</t>
-  </si>
-  <si>
-    <t>10,77</t>
-  </si>
-  <si>
-    <t>18,90</t>
-  </si>
-  <si>
-    <t>1,12</t>
-  </si>
-  <si>
-    <t>24,46</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>14,78</t>
-  </si>
-  <si>
-    <t>27,18</t>
-  </si>
-  <si>
-    <t>14,32</t>
-  </si>
-  <si>
-    <t>17,16</t>
-  </si>
-  <si>
-    <t>30,90</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -406,162 +328,108 @@
     <t>28.06.2000</t>
   </si>
   <si>
-    <t>11 764,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Jankowski</t>
   </si>
   <si>
     <t>12.04.1996</t>
   </si>
   <si>
-    <t>13 716,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Krawczyk</t>
   </si>
   <si>
     <t>18.08.1980</t>
   </si>
   <si>
-    <t>6 215,00 zł</t>
-  </si>
-  <si>
     <t>Julia Rogalska</t>
   </si>
   <si>
     <t>20.08.1989</t>
   </si>
   <si>
-    <t>12 022,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Lis</t>
   </si>
   <si>
     <t>17.09.1975</t>
   </si>
   <si>
-    <t>8 814,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Kozłowski</t>
   </si>
   <si>
     <t>20.03.1997</t>
   </si>
   <si>
-    <t>12 879,00 zł</t>
-  </si>
-  <si>
     <t>Lena Wilk</t>
   </si>
   <si>
     <t>20.12.1996</t>
   </si>
   <si>
-    <t>14 882,00 zł</t>
-  </si>
-  <si>
     <t>Jan Piotrowski</t>
   </si>
   <si>
     <t>20.12.2002</t>
   </si>
   <si>
-    <t>12 194,00 zł</t>
-  </si>
-  <si>
     <t>Maja Lis</t>
   </si>
   <si>
     <t>23.08.1987</t>
   </si>
   <si>
-    <t>13 985,00 zł</t>
-  </si>
-  <si>
     <t>Aleksander Kaczmarek</t>
   </si>
   <si>
     <t>28.09.1984</t>
   </si>
   <si>
-    <t>11 438,00 zł</t>
-  </si>
-  <si>
     <t>Anna Sikorska</t>
   </si>
   <si>
     <t>23.12.1982</t>
   </si>
   <si>
-    <t>6 906,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Kowalski</t>
   </si>
   <si>
     <t>07.10.1979</t>
   </si>
   <si>
-    <t>12 793,00 zł</t>
-  </si>
-  <si>
     <t>Filip Lewandowski</t>
   </si>
   <si>
     <t>10.03.1998</t>
   </si>
   <si>
-    <t>4 208,00 zł</t>
-  </si>
-  <si>
     <t>Lena Piekarska</t>
   </si>
   <si>
     <t>23.12.1995</t>
   </si>
   <si>
-    <t>5 740,00 zł</t>
-  </si>
-  <si>
     <t>Natalia Wilk</t>
   </si>
   <si>
     <t>27.07.1975</t>
   </si>
   <si>
-    <t>6 675,00 zł</t>
-  </si>
-  <si>
     <t>Jan Wojciechowski</t>
   </si>
   <si>
     <t>26.09.1993</t>
   </si>
   <si>
-    <t>12 790,00 zł</t>
-  </si>
-  <si>
     <t>Jakub Nowak</t>
   </si>
   <si>
     <t>11.06.1998</t>
   </si>
   <si>
-    <t>10 375,00 zł</t>
-  </si>
-  <si>
     <t>Filip Wiśniewski</t>
   </si>
   <si>
     <t>01.05.2000</t>
   </si>
   <si>
-    <t>12 121,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -574,9 +442,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -637,12 +502,6 @@
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 117,00 zł</t>
-  </si>
-  <si>
-    <t>1 486,00 zł</t>
-  </si>
-  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
@@ -655,12 +514,6 @@
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>1 149,00 zł</t>
-  </si>
-  <si>
-    <t>1 344,00 zł</t>
-  </si>
-  <si>
     <t>Krzysztof Lewandowski</t>
   </si>
   <si>
@@ -670,9 +523,6 @@
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>1 962,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
@@ -682,12 +532,6 @@
     <t>Smartwatch</t>
   </si>
   <si>
-    <t>1 182,00 zł</t>
-  </si>
-  <si>
-    <t>1 513,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
@@ -700,24 +544,12 @@
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>596,00 zł</t>
-  </si>
-  <si>
-    <t>811,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
     <t>marzec</t>
   </si>
   <si>
-    <t>1 216,00 zł</t>
-  </si>
-  <si>
-    <t>1 556,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
@@ -730,12 +562,6 @@
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>1 265,00 zł</t>
-  </si>
-  <si>
-    <t>1 581,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
@@ -745,45 +571,21 @@
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>1 479,00 zł</t>
-  </si>
-  <si>
-    <t>1 893,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
     <t>łódzkie</t>
   </si>
   <si>
-    <t>1 384,00 zł</t>
-  </si>
-  <si>
-    <t>1 578,00 zł</t>
-  </si>
-  <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 456,00 zł</t>
-  </si>
-  <si>
-    <t>1 762,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 163,00 zł</t>
-  </si>
-  <si>
-    <t>1 442,00 zł</t>
-  </si>
-  <si>
     <t>zachodniopomorskie</t>
   </si>
   <si>
@@ -793,21 +595,9 @@
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>1 077,00 zł</t>
-  </si>
-  <si>
-    <t>1 314,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
-    <t>560,00 zł</t>
-  </si>
-  <si>
-    <t>767,00 zł</t>
-  </si>
-  <si>
     <t>Piotr Wiśniewski</t>
   </si>
   <si>
@@ -817,139 +607,46 @@
     <t>Mikrofon studyjny</t>
   </si>
   <si>
-    <t>1 002,00 zł</t>
-  </si>
-  <si>
-    <t>1 363,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
-    <t>725,00 zł</t>
-  </si>
-  <si>
-    <t>943,00 zł</t>
-  </si>
-  <si>
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 333,00 zł</t>
-  </si>
-  <si>
-    <t>1 533,00 zł</t>
-  </si>
-  <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
-    <t>1 063,00 zł</t>
-  </si>
-  <si>
-    <t>1 446,00 zł</t>
-  </si>
-  <si>
     <t>śląskie</t>
   </si>
   <si>
-    <t>1 115,00 zł</t>
-  </si>
-  <si>
-    <t>1 371,00 zł</t>
-  </si>
-  <si>
     <t>Ewa Kowalczyk</t>
   </si>
   <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
-    <t>1 102,00 zł</t>
-  </si>
-  <si>
-    <t>1 532,00 zł</t>
-  </si>
-  <si>
     <t>Drukarka laserowa</t>
   </si>
   <si>
-    <t>760,00 zł</t>
-  </si>
-  <si>
-    <t>980,00 zł</t>
-  </si>
-  <si>
     <t>Płyta główna</t>
   </si>
   <si>
-    <t>1 403,00 zł</t>
-  </si>
-  <si>
-    <t>1 908,00 zł</t>
-  </si>
-  <si>
     <t>Kamera internetowa</t>
   </si>
   <si>
-    <t>1 434,00 zł</t>
-  </si>
-  <si>
-    <t>1 663,00 zł</t>
-  </si>
-  <si>
-    <t>1 268,00 zł</t>
-  </si>
-  <si>
-    <t>1 750,00 zł</t>
-  </si>
-  <si>
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>652,00 zł</t>
-  </si>
-  <si>
-    <t>893,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
-    <t>1 161,00 zł</t>
-  </si>
-  <si>
-    <t>1 602,00 zł</t>
-  </si>
-  <si>
     <t>lubuskie</t>
   </si>
   <si>
-    <t>1 189,00 zł</t>
-  </si>
-  <si>
-    <t>1 415,00 zł</t>
-  </si>
-  <si>
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>1 453,00 zł</t>
-  </si>
-  <si>
-    <t>1 685,00 zł</t>
-  </si>
-  <si>
     <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>549,00 zł</t>
-  </si>
-  <si>
-    <t>736,00 zł</t>
-  </si>
-  <si>
-    <t>1 358,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -971,7 +668,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -1028,14 +727,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1046,8 +745,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1078,30 +777,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1404,7 +1104,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1479,25 +1179,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1520,7 +1220,7 @@
       <c r="F17" s="3">
         <v>5</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1541,7 +1241,7 @@
       <c r="F18" s="3">
         <v>2</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1562,7 +1262,7 @@
       <c r="F19" s="3">
         <v>6</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1583,7 +1283,7 @@
       <c r="F20" s="3">
         <v>5</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1604,7 +1304,7 @@
       <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1625,7 +1325,7 @@
       <c r="F22" s="3">
         <v>6</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1646,7 +1346,7 @@
       <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1667,7 +1367,7 @@
       <c r="F24" s="3">
         <v>2</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1688,7 +1388,7 @@
       <c r="F25" s="3">
         <v>4</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1709,7 +1409,7 @@
       <c r="F26" s="3">
         <v>6</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1730,7 +1430,7 @@
       <c r="F27" s="3">
         <v>4</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1751,27 +1451,17 @@
       <c r="F28" s="3">
         <v>6</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1805,7 +1495,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1825,7 +1515,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1835,29 +1525,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1865,99 +1555,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>5.7</v>
       </c>
       <c r="D13" s="3">
         <v>5</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1.2</v>
       </c>
       <c r="D14" s="3">
         <v>7</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>13.3</v>
       </c>
       <c r="D15" s="3">
         <v>7</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2.4</v>
       </c>
       <c r="D16" s="3">
         <v>10</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5.5</v>
       </c>
       <c r="D17" s="3">
         <v>7</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1.1</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1990,7 +1680,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2015,113 +1705,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>16.45</v>
       </c>
       <c r="C15" s="3">
         <v>27</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>14.09</v>
       </c>
       <c r="C16" s="3">
         <v>41</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>11.62</v>
       </c>
       <c r="C17" s="3">
         <v>31</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>29.6</v>
       </c>
       <c r="C18" s="3">
         <v>28</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>12.88</v>
       </c>
       <c r="C19" s="3">
         <v>14</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2130,94 +1820,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>3.54</v>
       </c>
       <c r="C24" s="3">
         <v>36</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>10.77</v>
       </c>
       <c r="C25" s="3">
         <v>5</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>18.9</v>
       </c>
       <c r="C26" s="3">
         <v>20</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>1.12</v>
       </c>
       <c r="C27" s="3">
         <v>21</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>24.46</v>
       </c>
       <c r="C28" s="3">
         <v>15</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2226,98 +1916,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>14.78</v>
       </c>
       <c r="C33" s="3">
         <v>19</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>27.18</v>
       </c>
       <c r="C34" s="3">
         <v>46</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>14.32</v>
       </c>
       <c r="C35" s="3">
         <v>13</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>17.16</v>
       </c>
       <c r="C36" s="3">
         <v>49</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>30.9</v>
       </c>
       <c r="C37" s="3">
         <v>36</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2340,7 +2030,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:L18"/>
+      <selection activeCell="A11" sqref="A11:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2360,90 +2050,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>6</v>
@@ -2466,16 +2156,16 @@
       <c r="J12" s="3">
         <v>6</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
@@ -2498,16 +2188,16 @@
       <c r="J13" s="3">
         <v>4</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>5</v>
@@ -2530,16 +2220,16 @@
       <c r="J14" s="3">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3">
         <v>5</v>
@@ -2562,16 +2252,16 @@
       <c r="J15" s="3">
         <v>6</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3">
         <v>4</v>
@@ -2594,40 +2284,40 @@
       <c r="J16" s="3">
         <v>5</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+      <c r="A17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2660,277 +2350,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>117</v>
+      <c r="A1" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>125</v>
+      <c r="A10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>128</v>
+        <v>101</v>
+      </c>
+      <c r="C11" s="7">
+        <v>11764</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>131</v>
+        <v>103</v>
+      </c>
+      <c r="C12" s="7">
+        <v>13716</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>134</v>
+        <v>105</v>
+      </c>
+      <c r="C13" s="7">
+        <v>6215</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>137</v>
+        <v>107</v>
+      </c>
+      <c r="C14" s="7">
+        <v>12022</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>140</v>
+        <v>109</v>
+      </c>
+      <c r="C15" s="7">
+        <v>8814</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>143</v>
+        <v>111</v>
+      </c>
+      <c r="C16" s="7">
+        <v>12879</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>146</v>
+        <v>113</v>
+      </c>
+      <c r="C17" s="7">
+        <v>14882</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>149</v>
+        <v>115</v>
+      </c>
+      <c r="C18" s="7">
+        <v>12194</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>152</v>
+        <v>117</v>
+      </c>
+      <c r="C19" s="7">
+        <v>13985</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>155</v>
+        <v>119</v>
+      </c>
+      <c r="C20" s="7">
+        <v>11438</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>158</v>
+        <v>121</v>
+      </c>
+      <c r="C21" s="7">
+        <v>6906</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>161</v>
+        <v>123</v>
+      </c>
+      <c r="C22" s="7">
+        <v>12793</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>164</v>
+        <v>125</v>
+      </c>
+      <c r="C23" s="7">
+        <v>4208</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>167</v>
+        <v>127</v>
+      </c>
+      <c r="C24" s="7">
+        <v>5740</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>170</v>
+        <v>129</v>
+      </c>
+      <c r="C25" s="7">
+        <v>6675</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>173</v>
+        <v>131</v>
+      </c>
+      <c r="C26" s="7">
+        <v>12790</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>176</v>
+        <v>133</v>
+      </c>
+      <c r="C27" s="7">
+        <v>10375</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>179</v>
+        <v>135</v>
+      </c>
+      <c r="C28" s="7">
+        <v>12121</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="13" t="s">
-        <v>180</v>
+      <c r="A31" s="17" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>181</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>184</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>182</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>184</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B33" s="6"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>183</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>184</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B34" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2965,86 +2649,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>185</v>
+      <c r="A1" s="15" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>202</v>
+      <c r="A15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3052,22 +2736,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>206</v>
+        <v>159</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1117</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1486</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3075,22 +2759,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>212</v>
+        <v>163</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1149</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1344</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3098,22 +2782,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>216</v>
+        <v>166</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1486</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1962</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3121,22 +2805,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>221</v>
+        <v>169</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1182</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1513</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3144,22 +2828,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>227</v>
+        <v>173</v>
+      </c>
+      <c r="D20" s="7">
+        <v>596</v>
+      </c>
+      <c r="E20" s="7">
+        <v>811</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3167,22 +2851,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>231</v>
+        <v>173</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1216</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1556</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3190,22 +2874,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>237</v>
+        <v>179</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1265</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1581</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3213,22 +2897,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>242</v>
+        <v>182</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1479</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1893</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3236,22 +2920,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>246</v>
+        <v>179</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1384</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1578</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3259,22 +2943,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>249</v>
+        <v>185</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1456</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1762</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3282,22 +2966,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>253</v>
+        <v>187</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1163</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1442</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3305,22 +2989,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>258</v>
+        <v>190</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1077</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1314</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>259</v>
+        <v>191</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3328,22 +3012,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>261</v>
+        <v>169</v>
+      </c>
+      <c r="D28" s="7">
+        <v>560</v>
+      </c>
+      <c r="E28" s="7">
+        <v>767</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>262</v>
+        <v>192</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>263</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3351,22 +3035,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>266</v>
+        <v>194</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1002</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1363</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3374,22 +3058,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>269</v>
+        <v>194</v>
+      </c>
+      <c r="D30" s="7">
+        <v>725</v>
+      </c>
+      <c r="E30" s="7">
+        <v>943</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>223</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3397,22 +3081,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>272</v>
+        <v>196</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1333</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1533</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>273</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3420,22 +3104,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>275</v>
+        <v>169</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1063</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1446</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>276</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3443,22 +3127,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>278</v>
+        <v>163</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1115</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1371</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>279</v>
+        <v>199</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>280</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3466,22 +3150,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>282</v>
+        <v>190</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1102</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1532</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3489,22 +3173,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>285</v>
+        <v>201</v>
+      </c>
+      <c r="D35" s="7">
+        <v>760</v>
+      </c>
+      <c r="E35" s="7">
+        <v>980</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>263</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3512,22 +3196,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>288</v>
+        <v>202</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1403</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1908</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>279</v>
+        <v>199</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>276</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3535,22 +3219,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>291</v>
+        <v>203</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1434</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1663</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3558,22 +3242,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>293</v>
+        <v>169</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1268</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1750</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>279</v>
+        <v>199</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3581,22 +3265,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>296</v>
+        <v>204</v>
+      </c>
+      <c r="D39" s="7">
+        <v>652</v>
+      </c>
+      <c r="E39" s="7">
+        <v>893</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>297</v>
+        <v>205</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>273</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3604,22 +3288,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>299</v>
+        <v>187</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1161</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1602</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>300</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3627,22 +3311,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>302</v>
+        <v>163</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1189</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1415</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3650,22 +3334,22 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>305</v>
+        <v>207</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1453</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1685</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>306</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3673,22 +3357,22 @@
         <v>28</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>308</v>
+        <v>173</v>
+      </c>
+      <c r="D43" s="7">
+        <v>549</v>
+      </c>
+      <c r="E43" s="7">
+        <v>736</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>276</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3696,68 +3380,58 @@
         <v>29</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>309</v>
+        <v>169</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1161</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1358</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="13" t="s">
-        <v>180</v>
+      <c r="A47" s="17" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>310</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>184</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>311</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>184</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>312</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>184</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>313</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>184</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B51" s="6"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>314</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>184</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B52" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_030.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_030.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
   <si>
     <t>ZESTAW ZADAŃ NR 30 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Kacper Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Natalia Rogalska</t>
-  </si>
-  <si>
-    <t>Jakub Wójcik</t>
-  </si>
-  <si>
-    <t>Hanna Sikorska</t>
-  </si>
-  <si>
-    <t>Wojciech Woźniak</t>
+    <t>Oliwia Borkowska</t>
+  </si>
+  <si>
+    <t>Emilia Sikorska</t>
+  </si>
+  <si>
+    <t>Oliwia Czarnecka</t>
+  </si>
+  <si>
+    <t>Jakub Kowalczyk</t>
+  </si>
+  <si>
+    <t>Emilia Sadowska</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 30 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,22 +149,22 @@
     <t>Razem (zł)</t>
   </si>
   <si>
-    <t>Blok rysunkowy A4</t>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>Ołówek HB</t>
   </si>
   <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
+    <t>Pędzelek</t>
   </si>
   <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>Ołówek HB</t>
+    <t>Cyrkiel</t>
   </si>
   <si>
     <t>SUMA:</t>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,34 +266,43 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Emilia</t>
+  </si>
+  <si>
+    <t>Jaworska</t>
   </si>
   <si>
     <t>Adam</t>
   </si>
   <si>
-    <t>Zieliński</t>
-  </si>
-  <si>
-    <t>Kacper</t>
-  </si>
-  <si>
-    <t>Wojciechowski</t>
+    <t>Kozłowski</t>
+  </si>
+  <si>
+    <t>Zuzanna</t>
+  </si>
+  <si>
+    <t>Piekarska</t>
+  </si>
+  <si>
+    <t>Grabowski</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Olszewska</t>
+  </si>
+  <si>
+    <t>Szymon</t>
   </si>
   <si>
     <t>Lena</t>
   </si>
   <si>
-    <t>Piekarska</t>
-  </si>
-  <si>
-    <t>Wiśniewski</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Olszewska</t>
+    <t>Zawadzka</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -322,127 +338,112 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Wojciech Zieliński</t>
-  </si>
-  <si>
-    <t>28.06.2000</t>
-  </si>
-  <si>
-    <t>Wojciech Jankowski</t>
-  </si>
-  <si>
-    <t>12.04.1996</t>
-  </si>
-  <si>
-    <t>Wojciech Krawczyk</t>
-  </si>
-  <si>
-    <t>18.08.1980</t>
-  </si>
-  <si>
-    <t>Julia Rogalska</t>
-  </si>
-  <si>
-    <t>20.08.1989</t>
-  </si>
-  <si>
-    <t>Zuzanna Lis</t>
-  </si>
-  <si>
-    <t>17.09.1975</t>
-  </si>
-  <si>
-    <t>Wojciech Kozłowski</t>
-  </si>
-  <si>
-    <t>20.03.1997</t>
-  </si>
-  <si>
-    <t>Lena Wilk</t>
-  </si>
-  <si>
-    <t>20.12.1996</t>
-  </si>
-  <si>
-    <t>Jan Piotrowski</t>
-  </si>
-  <si>
-    <t>20.12.2002</t>
+    <t>Filip Kowalski</t>
+  </si>
+  <si>
+    <t>Wojciech Piotrowski</t>
+  </si>
+  <si>
+    <t>Zuzanna Borkowska</t>
+  </si>
+  <si>
+    <t>Lena Czarnecka</t>
+  </si>
+  <si>
+    <t>Natalia Urbaniak</t>
+  </si>
+  <si>
+    <t>Natalia Zawadzka</t>
+  </si>
+  <si>
+    <t>Natalia Kubiak</t>
+  </si>
+  <si>
+    <t>Adam Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Maja Król</t>
+  </si>
+  <si>
+    <t>Jakub Mazur</t>
+  </si>
+  <si>
+    <t>Szymon Szymański</t>
+  </si>
+  <si>
+    <t>Filip Woźniak</t>
+  </si>
+  <si>
+    <t>Amelia Górska</t>
+  </si>
+  <si>
+    <t>Kacper Wójcik</t>
+  </si>
+  <si>
+    <t>Anna Urbaniak</t>
+  </si>
+  <si>
+    <t>Jan Nowak</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Amelia Wilk</t>
+  </si>
+  <si>
+    <t>Mikołaj Wójcik</t>
+  </si>
+  <si>
+    <t>Julia Sikorska</t>
+  </si>
+  <si>
+    <t>Adam Jankowski</t>
+  </si>
+  <si>
+    <t>Jakub Kozłowski</t>
+  </si>
+  <si>
+    <t>Aleksander Woźniak</t>
+  </si>
+  <si>
+    <t>Aleksander Kowalski</t>
   </si>
   <si>
     <t>Maja Lis</t>
   </si>
   <si>
-    <t>23.08.1987</t>
-  </si>
-  <si>
-    <t>Aleksander Kaczmarek</t>
-  </si>
-  <si>
-    <t>28.09.1984</t>
-  </si>
-  <si>
-    <t>Anna Sikorska</t>
-  </si>
-  <si>
-    <t>23.12.1982</t>
-  </si>
-  <si>
-    <t>Antoni Kowalski</t>
-  </si>
-  <si>
-    <t>07.10.1979</t>
-  </si>
-  <si>
-    <t>Filip Lewandowski</t>
-  </si>
-  <si>
-    <t>10.03.1998</t>
-  </si>
-  <si>
-    <t>Lena Piekarska</t>
-  </si>
-  <si>
-    <t>23.12.1995</t>
-  </si>
-  <si>
-    <t>Natalia Wilk</t>
-  </si>
-  <si>
-    <t>27.07.1975</t>
-  </si>
-  <si>
     <t>Jan Wojciechowski</t>
   </si>
   <si>
-    <t>26.09.1993</t>
-  </si>
-  <si>
-    <t>Jakub Nowak</t>
-  </si>
-  <si>
-    <t>11.06.1998</t>
-  </si>
-  <si>
-    <t>Filip Wiśniewski</t>
-  </si>
-  <si>
-    <t>01.05.2000</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Hanna Sadowska</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -496,157 +497,139 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
     <t>kwiecień</t>
   </si>
   <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Mikrofon studyjny</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
     <t>Smart TV 55"</t>
   </si>
   <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
     <t>Maria Dąbrowska</t>
   </si>
   <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>czerwiec</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
   </si>
   <si>
     <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>styczeń</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Drukarka laserowa</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>Kamera internetowa</t>
-  </si>
-  <si>
-    <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -718,7 +701,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -741,12 +724,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -777,7 +754,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -788,13 +765,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1101,7 +1077,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1206,19 +1182,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3">
         <v>5</v>
       </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1227,19 +1203,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
         <v>6</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1248,19 +1224,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
         <v>3</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>4</v>
       </c>
-      <c r="D19" s="3">
-        <v>6</v>
-      </c>
       <c r="E19" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -1269,16 +1245,16 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="3">
         <v>5</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2</v>
       </c>
       <c r="F20" s="3">
         <v>5</v>
@@ -1290,16 +1266,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="3">
         <v>3</v>
       </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>4</v>
-      </c>
       <c r="E21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
@@ -1311,19 +1287,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
       </c>
       <c r="F22" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1332,19 +1308,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
         <v>3</v>
-      </c>
-      <c r="D23" s="3">
-        <v>6</v>
-      </c>
-      <c r="E23" s="3">
-        <v>4</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -1353,19 +1329,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
         <v>6</v>
-      </c>
-      <c r="E24" s="3">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3">
-        <v>2</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1377,16 +1353,16 @@
         <v>2</v>
       </c>
       <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
         <v>6</v>
       </c>
-      <c r="D25" s="3">
-        <v>2</v>
-      </c>
       <c r="E25" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1395,19 +1371,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3">
         <v>5</v>
-      </c>
-      <c r="D26" s="3">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3">
-        <v>4</v>
-      </c>
-      <c r="F26" s="3">
-        <v>6</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1416,19 +1392,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3">
         <v>5</v>
       </c>
-      <c r="C27" s="3">
-        <v>4</v>
-      </c>
-      <c r="D27" s="3">
-        <v>3</v>
-      </c>
       <c r="E27" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1443,13 +1419,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="3">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3">
         <v>5</v>
-      </c>
-      <c r="E28" s="3">
-        <v>4</v>
-      </c>
-      <c r="F28" s="3">
-        <v>6</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1462,6 +1438,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1495,7 +1477,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1515,7 +1497,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1525,29 +1507,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1555,99 +1537,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>5.7</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>5</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1.2</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1.4</v>
       </c>
       <c r="D14" s="3">
-        <v>7</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>13.3</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.8</v>
       </c>
       <c r="D15" s="3">
-        <v>7</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2.4</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>6</v>
       </c>
       <c r="D16" s="3">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>5.5</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>4.8</v>
       </c>
       <c r="D17" s="3">
-        <v>7</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>3</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1.1</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>12.1</v>
       </c>
       <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1664,10 +1646,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1680,7 +1662,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1705,27 +1687,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1733,85 +1715,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>16.45</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1.69</v>
       </c>
       <c r="C15" s="3">
-        <v>27</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>14.09</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>28.34</v>
       </c>
       <c r="C16" s="3">
-        <v>41</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>11.62</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>9.84</v>
       </c>
       <c r="C17" s="3">
-        <v>31</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>29.6</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>5.7</v>
       </c>
       <c r="C18" s="3">
-        <v>28</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>38</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>12.88</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>15.050000000000001</v>
       </c>
       <c r="C19" s="3">
-        <v>14</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1820,8 +1802,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1829,85 +1811,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>3.54</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>3.2</v>
       </c>
       <c r="C24" s="3">
-        <v>36</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>10.77</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>12.48</v>
       </c>
       <c r="C25" s="3">
-        <v>5</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>18.9</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>29.74</v>
       </c>
       <c r="C26" s="3">
-        <v>20</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>1.12</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>15.039999999999999</v>
       </c>
       <c r="C27" s="3">
-        <v>21</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>24.46</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>5.7</v>
       </c>
       <c r="C28" s="3">
-        <v>15</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1916,8 +1898,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1925,89 +1907,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>14.78</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>4.94</v>
       </c>
       <c r="C33" s="3">
-        <v>19</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>27.18</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>22.44</v>
       </c>
       <c r="C34" s="3">
-        <v>46</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>6</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>14.32</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>3.26</v>
       </c>
       <c r="C35" s="3">
-        <v>13</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>17.16</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>29.88</v>
       </c>
       <c r="C36" s="3">
-        <v>49</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>30.9</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>17.14</v>
       </c>
       <c r="C37" s="3">
-        <v>36</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2027,10 +2017,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L18"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2050,111 +2040,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" s="3">
         <v>4</v>
       </c>
       <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
         <v>3</v>
       </c>
-      <c r="G12" s="3">
-        <v>6</v>
-      </c>
       <c r="H12" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I12" s="3">
         <v>4</v>
       </c>
       <c r="J12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2162,31 +2152,31 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13" s="3">
         <v>3</v>
       </c>
       <c r="I13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2194,31 +2184,31 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3">
-        <v>6</v>
-      </c>
-      <c r="I14" s="3">
-        <v>5</v>
-      </c>
       <c r="J14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2226,31 +2216,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
       </c>
       <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="3">
         <v>4</v>
       </c>
-      <c r="G15" s="3">
-        <v>6</v>
-      </c>
       <c r="H15" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2258,72 +2248,168 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G16" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H16" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I16" s="3">
         <v>6</v>
       </c>
       <c r="J16" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2</v>
+      </c>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
+        <v>5</v>
+      </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3">
+        <v>4</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3">
+        <v>4</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2336,10 +2422,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A32" sqref="A32:B34"/>
+      <selection activeCell="A31" sqref="A31:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2350,271 +2436,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>91</v>
+      <c r="A1" s="14" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="7">
-        <v>11764</v>
+        <v>105</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C11" s="8">
+        <v>8036</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="7">
-        <v>13716</v>
+        <v>106</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1977</v>
+      </c>
+      <c r="C12" s="8">
+        <v>8280</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="7">
-        <v>6215</v>
+        <v>107</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1975</v>
+      </c>
+      <c r="C13" s="8">
+        <v>12285</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" s="7">
-        <v>12022</v>
+        <v>108</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3037</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="7">
-        <v>8814</v>
+      <c r="B15" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C15" s="8">
+        <v>5724</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="7">
-        <v>12879</v>
+      <c r="B16" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4131</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="7">
-        <v>14882</v>
+        <v>111</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C17" s="8">
+        <v>4870</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="7">
-        <v>12194</v>
+        <v>112</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C18" s="8">
+        <v>5808</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="7">
-        <v>13985</v>
+        <v>113</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1993</v>
+      </c>
+      <c r="C19" s="8">
+        <v>11709</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="7">
-        <v>11438</v>
+        <v>114</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C20" s="8">
+        <v>10499</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="7">
-        <v>6906</v>
+        <v>115</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C21" s="8">
+        <v>9439</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="7">
-        <v>12793</v>
+        <v>116</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1989</v>
+      </c>
+      <c r="C22" s="8">
+        <v>5514</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="7">
-        <v>4208</v>
+        <v>117</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1976</v>
+      </c>
+      <c r="C23" s="8">
+        <v>12926</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="7">
-        <v>5740</v>
+        <v>118</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C24" s="8">
+        <v>7499</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C25" s="7">
-        <v>6675</v>
+        <v>119</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C25" s="8">
+        <v>5886</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C26" s="7">
-        <v>12790</v>
+        <v>120</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1985</v>
+      </c>
+      <c r="C26" s="8">
+        <v>9537</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="7">
-        <v>10375</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" s="7">
-        <v>12121</v>
+        <v>117</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C27" s="8">
+        <v>4732</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="16" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="17" t="s">
-        <v>136</v>
-      </c>
+      <c r="A31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="B32" s="7"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>138</v>
-      </c>
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>139</v>
-      </c>
-      <c r="B34" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="B33" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2631,10 +2706,185 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A48" sqref="A48:B52"/>
+      <selection activeCell="A10" sqref="A10:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="3">
+        <v>123</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="3">
+        <v>104</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="3">
+        <v>162</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="3">
+        <v>126</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="3">
+        <v>90</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="3">
+        <v>126</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="3">
+        <v>187</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="3">
+        <v>90</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="3">
+        <v>182</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="3">
+        <v>147</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="3">
+        <v>149</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="3">
+        <v>114</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G48"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A44" sqref="A44:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2649,12 +2899,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2741,11 +2991,11 @@
       <c r="C16" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="7">
-        <v>1117</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1486</v>
+      <c r="D16" s="8">
+        <v>1039</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1184</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>160</v>
@@ -2764,11 +3014,11 @@
       <c r="C17" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="7">
-        <v>1149</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1344</v>
+      <c r="D17" s="8">
+        <v>1071</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1264</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>164</v>
@@ -2782,22 +3032,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1486</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1962</v>
+        <v>167</v>
+      </c>
+      <c r="D18" s="8">
+        <v>564</v>
+      </c>
+      <c r="E18" s="8">
+        <v>694</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2805,22 +3055,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1182</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1513</v>
+        <v>170</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1084</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1214</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2828,22 +3078,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D20" s="7">
-        <v>596</v>
-      </c>
-      <c r="E20" s="7">
-        <v>811</v>
+        <v>174</v>
+      </c>
+      <c r="D20" s="8">
+        <v>610</v>
+      </c>
+      <c r="E20" s="8">
+        <v>787</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2851,16 +3101,16 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1216</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1556</v>
+        <v>174</v>
+      </c>
+      <c r="D21" s="8">
+        <v>971</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1146</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>176</v>
@@ -2879,17 +3129,17 @@
       <c r="C22" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="7">
-        <v>1265</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1581</v>
+      <c r="D22" s="8">
+        <v>542</v>
+      </c>
+      <c r="E22" s="8">
+        <v>602</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2897,22 +3147,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="8">
+        <v>666</v>
+      </c>
+      <c r="E23" s="8">
+        <v>826</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D23" s="7">
-        <v>1479</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1893</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2923,19 +3173,19 @@
         <v>178</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1384</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1578</v>
+        <v>184</v>
+      </c>
+      <c r="D24" s="8">
+        <v>743</v>
+      </c>
+      <c r="E24" s="8">
+        <v>958</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2948,17 +3198,17 @@
       <c r="C25" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D25" s="7">
-        <v>1456</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1762</v>
+      <c r="D25" s="8">
+        <v>1059</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1440</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2966,22 +3216,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D26" s="7">
-        <v>1163</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1442</v>
+      <c r="D26" s="8">
+        <v>970</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1329</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2989,22 +3239,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1077</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1314</v>
+        <v>188</v>
+      </c>
+      <c r="D27" s="8">
+        <v>842</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1078</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3012,22 +3262,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1350</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1823</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="7">
-        <v>560</v>
-      </c>
-      <c r="E28" s="7">
-        <v>767</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3035,22 +3285,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1002</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1363</v>
+        <v>190</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1490</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1788</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3058,22 +3308,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1291</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1510</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="D30" s="7">
-        <v>725</v>
-      </c>
-      <c r="E30" s="7">
-        <v>943</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3081,22 +3331,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D31" s="7">
-        <v>1333</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1533</v>
+        <v>190</v>
+      </c>
+      <c r="D31" s="8">
+        <v>511</v>
+      </c>
+      <c r="E31" s="8">
+        <v>695</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3104,22 +3354,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1063</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1446</v>
+        <v>196</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1169</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1496</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3127,22 +3377,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1115</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1371</v>
+        <v>184</v>
+      </c>
+      <c r="D33" s="8">
+        <v>696</v>
+      </c>
+      <c r="E33" s="8">
+        <v>849</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3150,22 +3400,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1102</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1532</v>
+        <v>187</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1262</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1603</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3173,22 +3423,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D35" s="7">
-        <v>760</v>
-      </c>
-      <c r="E35" s="7">
-        <v>980</v>
+        <v>199</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1343</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1786</v>
       </c>
       <c r="F35" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3196,22 +3446,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1403</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1908</v>
+        <v>200</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1375</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1719</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3219,22 +3469,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37" s="8">
+        <v>832</v>
+      </c>
+      <c r="E37" s="8">
+        <v>1015</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1434</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1663</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="G37" s="3" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3242,22 +3492,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1268</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1750</v>
+        <v>201</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1246</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1396</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3265,22 +3515,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D39" s="7">
-        <v>652</v>
-      </c>
-      <c r="E39" s="7">
-        <v>893</v>
+        <v>181</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1426</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1740</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3288,150 +3538,58 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1161</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1602</v>
+        <v>190</v>
+      </c>
+      <c r="D40" s="8">
+        <v>774</v>
+      </c>
+      <c r="E40" s="8">
+        <v>921</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="G40" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>203</v>
+      </c>
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="3">
-        <v>26</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1189</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1415</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3">
-        <v>27</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1453</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1685</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="3">
-        <v>28</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D43" s="7">
-        <v>549</v>
-      </c>
-      <c r="E43" s="7">
-        <v>736</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D44" s="7">
-        <v>1161</v>
-      </c>
-      <c r="E44" s="7">
-        <v>1358</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="17" t="s">
-        <v>136</v>
-      </c>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>209</v>
-      </c>
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
-        <v>210</v>
-      </c>
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
-        <v>211</v>
-      </c>
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>212</v>
-      </c>
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
-        <v>213</v>
-      </c>
-      <c r="B52" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="B48" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
